--- a/Fees_PerUnit_Underperformers_ten_west.xlsx
+++ b/Fees_PerUnit_Underperformers_ten_west.xlsx
@@ -55,130 +55,130 @@
     <t>Expected Fees per Unit</t>
   </si>
   <si>
+    <t>B0000VMNTK</t>
+  </si>
+  <si>
+    <t>B00017L1TG</t>
+  </si>
+  <si>
+    <t>B001F79LKW</t>
+  </si>
+  <si>
+    <t>B002IOO41W</t>
+  </si>
+  <si>
+    <t>B003YHMN6K</t>
+  </si>
+  <si>
+    <t>B00568B1HW</t>
+  </si>
+  <si>
+    <t>B005NHVDSS</t>
+  </si>
+  <si>
+    <t>B007MPJ8YU</t>
+  </si>
+  <si>
+    <t>B00FE1SVRE</t>
+  </si>
+  <si>
+    <t>B00GLTBB6Q</t>
+  </si>
+  <si>
+    <t>B00IRW15ES</t>
+  </si>
+  <si>
+    <t>B00S33A6AU</t>
+  </si>
+  <si>
+    <t>B01IE7F62C</t>
+  </si>
+  <si>
     <t>B01LY3JI7T</t>
   </si>
   <si>
+    <t>B078SV48C6</t>
+  </si>
+  <si>
+    <t>B07RLJ4LB9</t>
+  </si>
+  <si>
+    <t>B07YBHV82Z</t>
+  </si>
+  <si>
+    <t>B084LMQ76W</t>
+  </si>
+  <si>
+    <t>B084LMSK7Y</t>
+  </si>
+  <si>
+    <t>B084LMSLRY</t>
+  </si>
+  <si>
+    <t>B08746GTC8</t>
+  </si>
+  <si>
+    <t>B089C33MDN</t>
+  </si>
+  <si>
+    <t>B08GCVXRDD</t>
+  </si>
+  <si>
+    <t>B08ZJBZY6H</t>
+  </si>
+  <si>
     <t>B094B72TDJ</t>
   </si>
   <si>
-    <t>B003YHMN6K</t>
-  </si>
-  <si>
-    <t>B07YBHV82Z</t>
-  </si>
-  <si>
-    <t>B089C33MDN</t>
-  </si>
-  <si>
-    <t>B0000VMNTK</t>
-  </si>
-  <si>
-    <t>B08ZJBZY6H</t>
-  </si>
-  <si>
-    <t>B08746GTC8</t>
-  </si>
-  <si>
-    <t>B00FE1SVRE</t>
+    <t>B09GPSX3NX</t>
+  </si>
+  <si>
+    <t>B0BDL9LKSZ</t>
+  </si>
+  <si>
+    <t>B0BDLDVB4J</t>
+  </si>
+  <si>
+    <t>B0BDT9L2QM</t>
   </si>
   <si>
     <t>B0BKGZGMCQ</t>
   </si>
   <si>
-    <t>B001F79LKW</t>
-  </si>
-  <si>
-    <t>B07RLJ4LB9</t>
-  </si>
-  <si>
-    <t>B007MPJ8YU</t>
-  </si>
-  <si>
-    <t>B00IRW15ES</t>
-  </si>
-  <si>
-    <t>B002IOO41W</t>
+    <t>B0BRBT7XVT</t>
+  </si>
+  <si>
+    <t>B0BS4JL7FN</t>
+  </si>
+  <si>
+    <t>B0CGVVJ2HM</t>
+  </si>
+  <si>
+    <t>B0CVLFS638</t>
+  </si>
+  <si>
+    <t>B0CVLG85PM</t>
   </si>
   <si>
     <t>B0DJYNNMN4</t>
   </si>
   <si>
-    <t>B00568B1HW</t>
-  </si>
-  <si>
-    <t>B08GCVXRDD</t>
-  </si>
-  <si>
-    <t>B0BDT9L2QM</t>
-  </si>
-  <si>
-    <t>B084LMSLRY</t>
-  </si>
-  <si>
-    <t>B00S33A6AU</t>
-  </si>
-  <si>
-    <t>B00GLTBB6Q</t>
+    <t>B0DMS53VW4</t>
+  </si>
+  <si>
+    <t>B0DMS5RXDG</t>
   </si>
   <si>
     <t>B0DXRG7K15</t>
   </si>
   <si>
-    <t>B01IE7F62C</t>
-  </si>
-  <si>
-    <t>B09GPSX3NX</t>
-  </si>
-  <si>
-    <t>B00017L1TG</t>
-  </si>
-  <si>
-    <t>B0CGVVJ2HM</t>
-  </si>
-  <si>
-    <t>B0DMS53VW4</t>
-  </si>
-  <si>
-    <t>B078SV48C6</t>
-  </si>
-  <si>
-    <t>B0BDL9LKSZ</t>
-  </si>
-  <si>
-    <t>B084LMSK7Y</t>
-  </si>
-  <si>
-    <t>B084LMQ76W</t>
-  </si>
-  <si>
-    <t>B0BDLDVB4J</t>
-  </si>
-  <si>
-    <t>B005NHVDSS</t>
-  </si>
-  <si>
-    <t>B0DMS5RXDG</t>
-  </si>
-  <si>
-    <t>B0BS4JL7FN</t>
-  </si>
-  <si>
     <t>B0FBT141JZ</t>
   </si>
   <si>
+    <t>B0FFCKGB1K</t>
+  </si>
+  <si>
     <t>B0FFCLZ61Y</t>
-  </si>
-  <si>
-    <t>B0FFCKGB1K</t>
-  </si>
-  <si>
-    <t>B0BRBT7XVT</t>
-  </si>
-  <si>
-    <t>B0CVLFS638</t>
-  </si>
-  <si>
-    <t>B0CVLG85PM</t>
   </si>
 </sst>
 </file>
@@ -588,40 +588,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2946</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>-7010.35</v>
+        <v>-25.86</v>
       </c>
       <c r="D2">
-        <v>-18234.37</v>
+        <v>-26.31</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-6098.22</v>
+        <v>-3.45</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-365.26</v>
+        <v>-81.38</v>
       </c>
       <c r="I2">
-        <v>-4.54</v>
+        <v>-0.02</v>
       </c>
       <c r="J2">
-        <v>-1220.45</v>
+        <v>-27.3</v>
       </c>
       <c r="K2">
-        <v>-32933.19</v>
+        <v>-164.32</v>
       </c>
       <c r="L2">
-        <v>-11.17895112016293</v>
+        <v>-54.77333333333334</v>
       </c>
       <c r="M2">
-        <v>-10.87</v>
+        <v>-23.27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -629,40 +629,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-5448.45</v>
+        <v>-20.84</v>
       </c>
       <c r="D3">
-        <v>-4645.47</v>
+        <v>-24.54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-2132.46</v>
+        <v>-16.9</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-172.93</v>
+        <v>-1.14</v>
       </c>
       <c r="I3">
-        <v>-4.24</v>
+        <v>-0.01</v>
       </c>
       <c r="J3">
-        <v>-410.71</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-12814.26</v>
+        <v>-63.42999999999999</v>
       </c>
       <c r="L3">
-        <v>-64.71848484848485</v>
+        <v>-31.715</v>
       </c>
       <c r="M3">
-        <v>-64.06</v>
+        <v>-29.72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -670,40 +670,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>-248.62</v>
+        <v>-10.35</v>
       </c>
       <c r="D4">
-        <v>-269.39</v>
+        <v>-8.69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-26.97</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-188.08</v>
+        <v>-45.19</v>
       </c>
       <c r="I4">
-        <v>-0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="J4">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-761.52</v>
+        <v>-64.23999999999999</v>
       </c>
       <c r="L4">
-        <v>-24.56516129032258</v>
+        <v>-64.23999999999999</v>
       </c>
       <c r="M4">
-        <v>-22.4</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -711,40 +711,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>-154.8</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="D5">
-        <v>-90.72</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-40.44</v>
+        <v>-3.01</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-31.16</v>
+        <v>-15.38</v>
       </c>
       <c r="I5">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="J5">
-        <v>-50.62</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-367.8400000000001</v>
+        <v>-35.23</v>
       </c>
       <c r="L5">
-        <v>-61.30666666666668</v>
+        <v>-35.23</v>
       </c>
       <c r="M5">
-        <v>-52.65</v>
+        <v>-26.05</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -752,40 +752,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>-194.18</v>
+        <v>-248.62</v>
       </c>
       <c r="D6">
-        <v>-127.12</v>
+        <v>-269.39</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-13.16</v>
+        <v>-26.97</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-120.73</v>
+        <v>-188.08</v>
       </c>
       <c r="I6">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="J6">
-        <v>-67.73</v>
+        <v>-28.3</v>
       </c>
       <c r="K6">
-        <v>-523.0500000000001</v>
+        <v>-761.52</v>
       </c>
       <c r="L6">
-        <v>-37.36071428571429</v>
+        <v>-24.56516129032258</v>
       </c>
       <c r="M6">
-        <v>-29.34</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -793,40 +793,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>-25.86</v>
+        <v>-12</v>
       </c>
       <c r="D7">
-        <v>-26.31</v>
+        <v>-15.83</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-3.45</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-81.38</v>
+        <v>-8.94</v>
       </c>
       <c r="I7">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J7">
-        <v>-27.3</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-164.32</v>
+        <v>-37.77999999999999</v>
       </c>
       <c r="L7">
-        <v>-54.77333333333334</v>
+        <v>-18.89</v>
       </c>
       <c r="M7">
-        <v>-23.27</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -834,40 +834,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-409.19</v>
+        <v>-0.96</v>
       </c>
       <c r="D8">
-        <v>-334.32</v>
+        <v>-10.2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-189.84</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>-23.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-15.83</v>
+        <v>-17.59</v>
       </c>
       <c r="I8">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-18.13</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-990.6800000000001</v>
+        <v>-28.75</v>
       </c>
       <c r="L8">
-        <v>-23.58761904761905</v>
+        <v>-14.375</v>
       </c>
       <c r="M8">
-        <v>-21.85</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -875,40 +875,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-30.45</v>
+        <v>-52.65</v>
       </c>
       <c r="D9">
-        <v>-26.31</v>
+        <v>-78.93000000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-3.33</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-80.18000000000001</v>
+        <v>-35.79</v>
       </c>
       <c r="I9">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-22.39</v>
       </c>
       <c r="K9">
-        <v>-140.29</v>
+        <v>-189.79</v>
       </c>
       <c r="L9">
-        <v>-46.76333333333334</v>
+        <v>-18.979</v>
       </c>
       <c r="M9">
-        <v>-27.66</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -957,40 +957,40 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>-281.22</v>
+        <v>-3.42</v>
       </c>
       <c r="D11">
-        <v>-240.19</v>
+        <v>-14.97</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-48.18</v>
+        <v>-1.2</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-26.65</v>
+        <v>-0.46</v>
       </c>
       <c r="I11">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-5.22</v>
       </c>
       <c r="K11">
-        <v>-596.4300000000001</v>
+        <v>-25.27</v>
       </c>
       <c r="L11">
-        <v>-27.11045454545455</v>
+        <v>-8.423333333333334</v>
       </c>
       <c r="M11">
-        <v>-26.04</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -998,13 +998,13 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>-10.35</v>
+        <v>-85.8</v>
       </c>
       <c r="D12">
-        <v>-8.69</v>
+        <v>-97.03</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>-45.19</v>
+        <v>-29.21</v>
       </c>
       <c r="I12">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-7.67</v>
       </c>
       <c r="K12">
-        <v>-64.23999999999999</v>
+        <v>-219.77</v>
       </c>
       <c r="L12">
-        <v>-64.23999999999999</v>
+        <v>-19.97909090909091</v>
       </c>
       <c r="M12">
-        <v>-30.36</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1039,13 +1039,13 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-359.55</v>
+        <v>-48.75</v>
       </c>
       <c r="D13">
-        <v>-451.7</v>
+        <v>-43.05</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-30.72</v>
+        <v>-113.44</v>
       </c>
       <c r="I13">
-        <v>-0.23</v>
+        <v>-0.03</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-842.2</v>
+        <v>-205.27</v>
       </c>
       <c r="L13">
-        <v>-16.51372549019608</v>
+        <v>-41.054</v>
       </c>
       <c r="M13">
-        <v>-4.41</v>
+        <v>-26.83</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1080,40 +1080,40 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-52.65</v>
+        <v>-92.20999999999999</v>
       </c>
       <c r="D14">
-        <v>-78.93000000000001</v>
+        <v>-61.18</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-19.2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>-35.79</v>
+        <v>-9.57</v>
       </c>
       <c r="I14">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="J14">
-        <v>-22.39</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-189.79</v>
+        <v>-182.22</v>
       </c>
       <c r="L14">
-        <v>-18.979</v>
+        <v>-60.73999999999999</v>
       </c>
       <c r="M14">
-        <v>-10.35</v>
+        <v>-57.98</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1121,40 +1121,40 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>2946</v>
       </c>
       <c r="C15">
-        <v>-85.8</v>
+        <v>-7010.35</v>
       </c>
       <c r="D15">
-        <v>-97.03</v>
+        <v>-18234.37</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-6098.22</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>-29.21</v>
+        <v>-365.26</v>
       </c>
       <c r="I15">
-        <v>-0.06</v>
+        <v>-4.54</v>
       </c>
       <c r="J15">
-        <v>-7.67</v>
+        <v>-1280.95</v>
       </c>
       <c r="K15">
-        <v>-219.77</v>
+        <v>-32993.69</v>
       </c>
       <c r="L15">
-        <v>-19.97909090909091</v>
+        <v>-11.19948744059742</v>
       </c>
       <c r="M15">
-        <v>-4.41</v>
+        <v>-10.87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1165,37 +1165,37 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>-8.699999999999999</v>
+        <v>-37.35</v>
       </c>
       <c r="D16">
-        <v>-8.130000000000001</v>
+        <v>-9.32</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-3.01</v>
+        <v>-0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>-15.38</v>
+        <v>-2.26</v>
       </c>
       <c r="I16">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-108.01</v>
       </c>
       <c r="K16">
-        <v>-35.23</v>
+        <v>-156.96</v>
       </c>
       <c r="L16">
-        <v>-35.23</v>
+        <v>-156.96</v>
       </c>
       <c r="M16">
-        <v>-26.05</v>
+        <v>-82.77</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1203,13 +1203,13 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>-4.59</v>
+        <v>-359.55</v>
       </c>
       <c r="D17">
-        <v>-12.11</v>
+        <v>-451.7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>-6.04</v>
+        <v>-30.72</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="J17">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-23.27</v>
+        <v>-842.2</v>
       </c>
       <c r="L17">
-        <v>-7.756666666666667</v>
+        <v>-16.51372549019608</v>
       </c>
       <c r="M17">
-        <v>-5.9</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1244,40 +1244,40 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>-12</v>
+        <v>-154.8</v>
       </c>
       <c r="D18">
-        <v>-15.83</v>
+        <v>-90.72</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>-40.44</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>-8.94</v>
+        <v>-31.16</v>
       </c>
       <c r="I18">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-50.62</v>
       </c>
       <c r="K18">
-        <v>-37.77999999999999</v>
+        <v>-367.8400000000001</v>
       </c>
       <c r="L18">
-        <v>-18.89</v>
+        <v>-61.30666666666668</v>
       </c>
       <c r="M18">
-        <v>-15.28</v>
+        <v>-52.65</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-155.25</v>
+        <v>-3</v>
       </c>
       <c r="D19">
-        <v>-74.65000000000001</v>
+        <v>-5.82</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>-5.83</v>
+        <v>-4.62</v>
       </c>
       <c r="I19">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-37.49</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>-273.32</v>
+        <v>-13.44</v>
       </c>
       <c r="L19">
-        <v>-54.664</v>
+        <v>-6.720000000000001</v>
       </c>
       <c r="M19">
-        <v>-53.24</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1326,40 +1326,40 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>-169.46</v>
+        <v>-3</v>
       </c>
       <c r="D20">
-        <v>-112.38</v>
+        <v>-5.82</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-234.42</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-10.31</v>
+        <v>-10.04</v>
       </c>
       <c r="I20">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-526.6999999999999</v>
+        <v>-18.86</v>
       </c>
       <c r="L20">
-        <v>-87.78333333333332</v>
+        <v>-9.43</v>
       </c>
       <c r="M20">
-        <v>-59.8</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1408,40 +1408,40 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-48.75</v>
+        <v>-30.45</v>
       </c>
       <c r="D22">
-        <v>-43.05</v>
+        <v>-26.31</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-3.33</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>-113.44</v>
+        <v>-80.18000000000001</v>
       </c>
       <c r="I22">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-205.27</v>
+        <v>-140.29</v>
       </c>
       <c r="L22">
-        <v>-41.054</v>
+        <v>-46.76333333333334</v>
       </c>
       <c r="M22">
-        <v>-26.83</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1449,40 +1449,40 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>-3.42</v>
+        <v>-194.18</v>
       </c>
       <c r="D23">
-        <v>-14.97</v>
+        <v>-127.12</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-1.2</v>
+        <v>-13.16</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>-0.46</v>
+        <v>-120.73</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="J23">
-        <v>-5.22</v>
+        <v>-67.73</v>
       </c>
       <c r="K23">
-        <v>-25.27</v>
+        <v>-523.0500000000001</v>
       </c>
       <c r="L23">
-        <v>-8.423333333333334</v>
+        <v>-37.36071428571429</v>
       </c>
       <c r="M23">
-        <v>-7.67</v>
+        <v>-29.34</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1490,40 +1490,40 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>-111.3</v>
+        <v>-155.25</v>
       </c>
       <c r="D24">
-        <v>-182.42</v>
+        <v>-74.65000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-37.24</v>
+        <v>-0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>-1.54</v>
+        <v>-5.83</v>
       </c>
       <c r="I24">
-        <v>-0.07000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-37.49</v>
       </c>
       <c r="K24">
-        <v>-332.57</v>
+        <v>-273.32</v>
       </c>
       <c r="L24">
-        <v>-23.755</v>
+        <v>-54.664</v>
       </c>
       <c r="M24">
-        <v>-20.9</v>
+        <v>-53.24</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1531,40 +1531,40 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>-92.20999999999999</v>
+        <v>-409.19</v>
       </c>
       <c r="D25">
-        <v>-61.18</v>
+        <v>-334.32</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-19.2</v>
+        <v>-189.84</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>-23.1</v>
       </c>
       <c r="H25">
-        <v>-9.57</v>
+        <v>-15.83</v>
       </c>
       <c r="I25">
-        <v>-0.06</v>
+        <v>-0.27</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-18.13</v>
       </c>
       <c r="K25">
-        <v>-182.22</v>
+        <v>-990.6800000000001</v>
       </c>
       <c r="L25">
-        <v>-60.73999999999999</v>
+        <v>-23.58761904761905</v>
       </c>
       <c r="M25">
-        <v>-57.98</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1572,40 +1572,40 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="C26">
-        <v>-42.75</v>
+        <v>-5448.45</v>
       </c>
       <c r="D26">
-        <v>-11.7</v>
+        <v>-4645.47</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0</v>
+        <v>-2132.46</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>-0.15</v>
+        <v>-172.93</v>
       </c>
       <c r="I26">
-        <v>-0.03</v>
+        <v>-4.24</v>
       </c>
       <c r="J26">
-        <v>-59.22</v>
+        <v>-410.71</v>
       </c>
       <c r="K26">
-        <v>-113.85</v>
+        <v>-12814.26</v>
       </c>
       <c r="L26">
-        <v>-37.95</v>
+        <v>-64.71848484848485</v>
       </c>
       <c r="M26">
-        <v>-35.65</v>
+        <v>-64.06</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1613,40 +1613,40 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>-20.84</v>
+        <v>-42.75</v>
       </c>
       <c r="D27">
-        <v>-24.54</v>
+        <v>-11.7</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-16.9</v>
+        <v>-0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>-1.14</v>
+        <v>-0.15</v>
       </c>
       <c r="I27">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-59.22</v>
       </c>
       <c r="K27">
-        <v>-63.42999999999999</v>
+        <v>-113.85</v>
       </c>
       <c r="L27">
-        <v>-31.715</v>
+        <v>-37.95</v>
       </c>
       <c r="M27">
-        <v>-29.72</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>-38.4</v>
+        <v>-2.7</v>
       </c>
       <c r="D28">
-        <v>-79.48</v>
+        <v>-4.76</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1672,22 +1672,22 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>-47.32</v>
+        <v>-4.49</v>
       </c>
       <c r="I28">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-165.22</v>
+        <v>-11.95</v>
       </c>
       <c r="L28">
-        <v>-41.305</v>
+        <v>-5.975</v>
       </c>
       <c r="M28">
-        <v>-4.41</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1695,13 +1695,13 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>-4.5</v>
+        <v>-2.34</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-10.2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-6.54</v>
+        <v>-4.95</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>-11.59</v>
+        <v>-17.49</v>
       </c>
       <c r="L29">
-        <v>-11.59</v>
+        <v>-8.744999999999999</v>
       </c>
       <c r="M29">
-        <v>-10.64</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1736,40 +1736,40 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>-37.35</v>
+        <v>-169.46</v>
       </c>
       <c r="D30">
-        <v>-9.32</v>
+        <v>-112.38</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0</v>
+        <v>-234.42</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>-2.26</v>
+        <v>-10.31</v>
       </c>
       <c r="I30">
-        <v>-0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="J30">
-        <v>-108.01</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-156.96</v>
+        <v>-526.6999999999999</v>
       </c>
       <c r="L30">
-        <v>-156.96</v>
+        <v>-87.78333333333332</v>
       </c>
       <c r="M30">
-        <v>-82.77</v>
+        <v>-59.8</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1777,40 +1777,40 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>-2.7</v>
+        <v>-281.22</v>
       </c>
       <c r="D31">
-        <v>-4.76</v>
+        <v>-240.19</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-48.18</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>-4.49</v>
+        <v>-26.65</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>-11.95</v>
+        <v>-596.4300000000001</v>
       </c>
       <c r="L31">
-        <v>-5.975</v>
+        <v>-27.11045454545455</v>
       </c>
       <c r="M31">
-        <v>-4.62</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1821,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>-3</v>
+        <v>-58.5</v>
       </c>
       <c r="D32">
-        <v>-5.82</v>
+        <v>-42.02</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1836,22 +1836,22 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>-10.04</v>
+        <v>-35.89</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>-18.86</v>
+        <v>-136.45</v>
       </c>
       <c r="L32">
-        <v>-9.43</v>
+        <v>-68.22500000000001</v>
       </c>
       <c r="M32">
-        <v>-5.9</v>
+        <v>-63.92</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1859,13 +1859,13 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>-3</v>
+        <v>-132.89</v>
       </c>
       <c r="D33">
-        <v>-5.82</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1877,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>-4.62</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>-13.44</v>
+        <v>-132.97</v>
       </c>
       <c r="L33">
-        <v>-6.720000000000001</v>
+        <v>-132.97</v>
       </c>
       <c r="M33">
-        <v>-5.36</v>
+        <v>-120.22</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1900,13 +1900,13 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>-2.34</v>
+        <v>-38.4</v>
       </c>
       <c r="D34">
-        <v>-10.2</v>
+        <v>-79.48</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1918,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>-4.95</v>
+        <v>-47.32</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>-17.49</v>
+        <v>-165.22</v>
       </c>
       <c r="L34">
-        <v>-8.744999999999999</v>
+        <v>-41.305</v>
       </c>
       <c r="M34">
-        <v>-4.62</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1941,13 +1941,13 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>-0.96</v>
+        <v>-331.95</v>
       </c>
       <c r="D35">
-        <v>-10.2</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1959,22 +1959,22 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>-17.59</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>-28.75</v>
+        <v>-332.12</v>
       </c>
       <c r="L35">
-        <v>-14.375</v>
+        <v>-332.12</v>
       </c>
       <c r="M35">
-        <v>-5.07</v>
+        <v>-288</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1982,13 +1982,13 @@
         <v>47</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>-9</v>
+        <v>-218.25</v>
       </c>
       <c r="D36">
-        <v>-9.98</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2000,22 +2000,22 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>-23.04</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>-0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="K36">
-        <v>-42.02999999999999</v>
+        <v>-219.62</v>
       </c>
       <c r="L36">
-        <v>-21.015</v>
+        <v>-219.62</v>
       </c>
       <c r="M36">
-        <v>-10.64</v>
+        <v>-211.77</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2023,13 +2023,13 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>-132.89</v>
+        <v>-4.59</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>-12.11</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2041,22 +2041,22 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-6.04</v>
       </c>
       <c r="I37">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="K37">
-        <v>-132.97</v>
+        <v>-23.27</v>
       </c>
       <c r="L37">
-        <v>-132.97</v>
+        <v>-7.756666666666667</v>
       </c>
       <c r="M37">
-        <v>-120.22</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2064,10 +2064,10 @@
         <v>49</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>-121.8</v>
+        <v>-4.5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2079,25 +2079,25 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-6.54</v>
       </c>
       <c r="I38">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>-121.86</v>
+        <v>-11.59</v>
       </c>
       <c r="L38">
-        <v>-30.465</v>
+        <v>-11.59</v>
       </c>
       <c r="M38">
-        <v>-26.69</v>
+        <v>-10.64</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2105,13 +2105,13 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>-132.6</v>
+        <v>-9</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>-9.98</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-23.04</v>
       </c>
       <c r="I39">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>-132.67</v>
+        <v>-42.02999999999999</v>
       </c>
       <c r="L39">
-        <v>-33.1675</v>
+        <v>-21.015</v>
       </c>
       <c r="M39">
-        <v>-30.31</v>
+        <v>-10.64</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2146,40 +2146,40 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>-26.25</v>
+        <v>-111.3</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-182.42</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-37.24</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1.54</v>
       </c>
       <c r="I40">
-        <v>-0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J40">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>-27.51</v>
+        <v>-332.57</v>
       </c>
       <c r="L40">
-        <v>-27.51</v>
+        <v>-23.755</v>
       </c>
       <c r="M40">
-        <v>-22.77</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2187,13 +2187,13 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>-58.5</v>
+        <v>-121.8</v>
       </c>
       <c r="D41">
-        <v>-42.02</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>-35.89</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>-136.45</v>
+        <v>-121.86</v>
       </c>
       <c r="L41">
-        <v>-68.22500000000001</v>
+        <v>-30.465</v>
       </c>
       <c r="M41">
-        <v>-63.92</v>
+        <v>-26.69</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2231,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>-331.95</v>
+        <v>-26.25</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2249,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>-0.17</v>
+        <v>-0.01</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="K42">
-        <v>-332.12</v>
+        <v>-27.51</v>
       </c>
       <c r="L42">
-        <v>-332.12</v>
+        <v>-27.51</v>
       </c>
       <c r="M42">
-        <v>-288</v>
+        <v>-22.77</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2269,10 +2269,10 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>-218.25</v>
+        <v>-132.6</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>-0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J43">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>-219.62</v>
+        <v>-132.67</v>
       </c>
       <c r="L43">
-        <v>-219.62</v>
+        <v>-33.1675</v>
       </c>
       <c r="M43">
-        <v>-211.77</v>
+        <v>-30.31</v>
       </c>
     </row>
   </sheetData>
